--- a/biology/Zoologie/Ischyropsalis_hellwigii/Ischyropsalis_hellwigii.xlsx
+++ b/biology/Zoologie/Ischyropsalis_hellwigii/Ischyropsalis_hellwigii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischyropsalis hellwigii est une espèce d'opilions dyspnois de la famille des Ischyropsalididae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ischyropsalis hellwigii hellwigii se rencontre aux Pays-Bas, en Allemagne, en Pologne, en Tchéquie, en Autriche, en Italie, en Slovénie, en Hongrie, en Croatie et en Bosnie-Herzégovine[1].
-Ischyropsalis hellwigii lucantei se rencontre en France et en Espagne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ischyropsalis hellwigii hellwigii se rencontre aux Pays-Bas, en Allemagne, en Pologne, en Tchéquie, en Autriche, en Italie, en Slovénie, en Hongrie, en Croatie et en Bosnie-Herzégovine.
+Ischyropsalis hellwigii lucantei se rencontre en France et en Espagne.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 5,6 à 6,8 mm et les femelles de 6,8 à 8,5 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 5,6 à 6,8 mm et les femelles de 6,8 à 8,5 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (07/05/2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (07/05/2023) :
 Ischyropsalis hellwigii hellwigii (Panzer, 1793)
 Ischyropsalis hellwigii lucantei Simon, 1879</t>
         </is>
@@ -606,13 +624,15 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phalangium hellwigii par Panzer en 1794. Elle est placée dans le genre Ischyropsalis par C. L. Koch en 1839[3].
-Ischyropsalis taunica[4] a été placée en synonymie par Martens en 1965[5].
-Ischyropsalis herbstii[6], Ischyropsalis plicata[7], Ischyropsalis pectinifera[8], Ischyropsalis frankenbergeri[9], Ischyropsalis crassichelis[10] et Ischyropsalis franzi[10] ont été placées en synonymie par Martens en 1969[11].
-Ischyropsalis hellwigii lucantei a été décrite sous le protonyme Ischyropsalis lucantei par Simon en 1879. Elle est considérée comme une sous-espèce de Ischyropsalis hellwigii par Martens en 1969[11].
-Ischyropsalis superbus[12] a été placée en synonymie avec Ischyropsalis hellwigii lucantei par Martens en 1969[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phalangium hellwigii par Panzer en 1794. Elle est placée dans le genre Ischyropsalis par C. L. Koch en 1839.
+Ischyropsalis taunica a été placée en synonymie par Martens en 1965.
+Ischyropsalis herbstii, Ischyropsalis plicata, Ischyropsalis pectinifera, Ischyropsalis frankenbergeri, Ischyropsalis crassichelis et Ischyropsalis franzi ont été placées en synonymie par Martens en 1969.
+Ischyropsalis hellwigii lucantei a été décrite sous le protonyme Ischyropsalis lucantei par Simon en 1879. Elle est considérée comme une sous-espèce de Ischyropsalis hellwigii par Martens en 1969.
+Ischyropsalis superbus a été placée en synonymie avec Ischyropsalis hellwigii lucantei par Martens en 1969.
 </t>
         </is>
       </c>
@@ -641,10 +661,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Johann Christian Ludwig Hellwig[13].
-Ischyropsalis hellwigii lucantei est nommée en l'honneur de Jean-Angel Lucante[14].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Johann Christian Ludwig Hellwig.
+Ischyropsalis hellwigii lucantei est nommée en l'honneur de Jean-Angel Lucante.
 </t>
         </is>
       </c>
@@ -673,7 +695,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Panzer, 1794 : Faunae Insectorum Germanicae initia oder Deutschlands Insecten, Zweyter Jahrgang, XIII–XXIV Heft, Felseckersche Buchhandlung, Nürnberg, p. 1–284.
 Simon, 1879 : « Les Ordres des Chernetes, Scorpiones et Opiliones. » Les Arachnides de France, vol. 7, p. 1-332.</t>
